--- a/individual_items.xlsx
+++ b/individual_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4543D7-443E-4BC3-9FA2-0C43F6242C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440158CB-1ECC-4DB1-B435-3D133FAAF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="653" activeTab="1" xr2:uid="{EB3FE16E-157E-4914-A7D1-6C101C7199CA}"/>
+    <workbookView minimized="1" xWindow="11840" yWindow="680" windowWidth="20820" windowHeight="17410" tabRatio="653" xr2:uid="{EB3FE16E-157E-4914-A7D1-6C101C7199CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Art Objects" sheetId="7" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="660">
   <si>
     <t>Armor, +3 plate</t>
   </si>
@@ -364,21 +364,6 @@
     <t>Azurite (opaque mottled deep blue)</t>
   </si>
   <si>
-    <t>5000 GP</t>
-  </si>
-  <si>
-    <t>1000 GP</t>
-  </si>
-  <si>
-    <t>500 GP</t>
-  </si>
-  <si>
-    <t>50 GP</t>
-  </si>
-  <si>
-    <t>10 GP</t>
-  </si>
-  <si>
     <t>Small gold statuette set with rubies</t>
   </si>
   <si>
@@ -521,21 +506,6 @@
   </si>
   <si>
     <t>Black velvet mask stitched with silver thread</t>
-  </si>
-  <si>
-    <t>7500 GP</t>
-  </si>
-  <si>
-    <t>2500 GP</t>
-  </si>
-  <si>
-    <t>750 GP</t>
-  </si>
-  <si>
-    <t>250 GP</t>
-  </si>
-  <si>
-    <t>25 GP</t>
   </si>
   <si>
     <t>Serpentine owl</t>
@@ -2129,7 +2099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2162,6 +2132,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2479,9 +2455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85B3EE1-6AFF-4A57-8DA1-7E554C0976DB}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2493,20 +2469,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" t="s">
-        <v>157</v>
+      <c r="B1">
+        <v>25</v>
+      </c>
+      <c r="C1">
+        <v>250</v>
+      </c>
+      <c r="D1">
+        <v>750</v>
+      </c>
+      <c r="E1">
+        <v>2500</v>
+      </c>
+      <c r="F1">
+        <v>7500</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2514,19 +2490,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2534,19 +2510,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2554,19 +2530,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2574,19 +2550,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2594,19 +2570,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2614,19 +2590,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2634,19 +2610,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2654,19 +2630,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -2675,19 +2651,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -2696,19 +2672,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -2717,19 +2693,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -2738,19 +2714,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -2759,19 +2735,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -2780,19 +2756,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -2801,19 +2777,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K16" s="3"/>
     </row>
@@ -2822,19 +2798,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2842,19 +2818,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2862,19 +2838,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -2883,19 +2859,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -2904,19 +2880,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -2925,19 +2901,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -2946,19 +2922,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -2967,19 +2943,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -2988,19 +2964,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -3009,19 +2985,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -3030,19 +3006,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -3051,19 +3027,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I28" s="3"/>
     </row>
@@ -3072,19 +3048,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3092,19 +3068,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3112,19 +3088,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3132,19 +3108,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3152,19 +3128,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3172,19 +3148,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3192,19 +3168,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3212,19 +3188,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3232,19 +3208,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3252,19 +3228,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3272,19 +3248,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3292,19 +3268,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3312,19 +3288,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3352,10 +3328,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -3370,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -3385,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -3400,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -3415,7 +3391,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3430,7 +3406,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -3445,7 +3421,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -3460,7 +3436,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -3475,7 +3451,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -3490,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -3505,7 +3481,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -3520,7 +3496,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -3535,7 +3511,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -3550,7 +3526,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -3565,7 +3541,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -3580,7 +3556,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -3595,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -3610,7 +3586,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -3625,7 +3601,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -3640,7 +3616,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -3655,7 +3631,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -3670,7 +3646,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -3685,7 +3661,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -3700,7 +3676,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -3715,7 +3691,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -3730,7 +3706,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -3745,7 +3721,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -3760,7 +3736,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -3775,7 +3751,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -3790,7 +3766,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -3805,7 +3781,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -3820,7 +3796,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -3835,7 +3811,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -3850,7 +3826,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -3865,7 +3841,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -3880,7 +3856,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -3895,7 +3871,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -3910,7 +3886,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -3925,7 +3901,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -3940,7 +3916,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -3955,7 +3931,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -3970,7 +3946,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -3985,7 +3961,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -4000,7 +3976,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -4015,7 +3991,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -4030,7 +4006,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -4045,7 +4021,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -4060,7 +4036,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -4075,7 +4051,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -4090,7 +4066,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -4105,7 +4081,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -4120,7 +4096,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -4135,7 +4111,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -4150,7 +4126,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -4165,7 +4141,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -4180,7 +4156,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
@@ -4195,7 +4171,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
@@ -4210,7 +4186,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="9"/>
@@ -4225,7 +4201,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
@@ -4240,7 +4216,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -4255,7 +4231,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
@@ -4270,7 +4246,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
@@ -4285,7 +4261,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
@@ -4300,7 +4276,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
@@ -4315,7 +4291,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
@@ -4330,7 +4306,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -4345,7 +4321,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -4360,7 +4336,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
@@ -4375,7 +4351,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
@@ -4390,7 +4366,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
@@ -4405,7 +4381,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
@@ -4420,7 +4396,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
@@ -4435,7 +4411,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
@@ -4450,7 +4426,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="9"/>
@@ -4465,7 +4441,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
@@ -4480,7 +4456,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="9"/>
@@ -4495,7 +4471,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="9"/>
@@ -4510,7 +4486,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
@@ -4525,7 +4501,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="9"/>
@@ -4540,7 +4516,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="9"/>
@@ -4555,7 +4531,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
@@ -4570,7 +4546,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="9"/>
@@ -4585,7 +4561,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="9"/>
@@ -4621,10 +4597,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -4639,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -4654,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -4669,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4684,7 +4660,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -4699,7 +4675,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -4714,7 +4690,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -4729,7 +4705,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -4744,7 +4720,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -4759,7 +4735,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -4774,7 +4750,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -4789,7 +4765,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -4804,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -4819,7 +4795,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -4834,7 +4810,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -4849,7 +4825,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -4864,7 +4840,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -4879,7 +4855,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -4894,7 +4870,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -4909,7 +4885,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -4924,7 +4900,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -4939,7 +4915,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -4954,7 +4930,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -4969,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -4984,7 +4960,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4999,7 +4975,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -5014,7 +4990,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -5029,7 +5005,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -5044,7 +5020,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -5059,7 +5035,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -5074,7 +5050,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -5089,7 +5065,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -5104,7 +5080,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -5119,7 +5095,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -5134,7 +5110,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -5149,7 +5125,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -5164,7 +5140,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -5179,7 +5155,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -5194,7 +5170,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -5209,7 +5185,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -5224,7 +5200,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -5239,7 +5215,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -5254,7 +5230,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -5269,7 +5245,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -5284,7 +5260,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -5299,7 +5275,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -5314,7 +5290,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -5329,7 +5305,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -5344,7 +5320,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -5359,7 +5335,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -5374,7 +5350,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -5389,7 +5365,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -5404,7 +5380,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -5419,7 +5395,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -5434,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -5449,7 +5425,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
@@ -5464,7 +5440,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
@@ -5479,7 +5455,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="9"/>
@@ -5494,7 +5470,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
@@ -5509,7 +5485,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -5524,7 +5500,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
@@ -5539,7 +5515,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
@@ -5554,7 +5530,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
@@ -5569,7 +5545,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
@@ -5584,7 +5560,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
@@ -5599,7 +5575,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -5614,7 +5590,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -5629,7 +5605,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
@@ -5644,7 +5620,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
@@ -5659,7 +5635,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
@@ -5674,7 +5650,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
@@ -5689,7 +5665,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
@@ -5704,7 +5680,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
@@ -5740,10 +5716,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -5758,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -5773,7 +5749,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -5788,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -5803,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -5818,7 +5794,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -5833,7 +5809,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -5848,7 +5824,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -5863,7 +5839,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -5878,7 +5854,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -5893,7 +5869,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -5908,7 +5884,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -5923,7 +5899,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -5938,7 +5914,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -5953,7 +5929,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -5968,7 +5944,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -5983,7 +5959,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -5998,7 +5974,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -6013,7 +5989,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -6028,7 +6004,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -6043,7 +6019,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -6058,7 +6034,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -6073,7 +6049,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -6088,7 +6064,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -6103,7 +6079,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -6118,7 +6094,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -6133,7 +6109,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -6148,7 +6124,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -6163,7 +6139,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -6178,7 +6154,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -6193,7 +6169,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -6208,7 +6184,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -6223,7 +6199,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -6238,7 +6214,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -6253,7 +6229,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -6268,7 +6244,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -6283,7 +6259,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -6298,7 +6274,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -6313,7 +6289,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -6328,7 +6304,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -6343,7 +6319,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -6358,7 +6334,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -6373,7 +6349,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -6388,7 +6364,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -6403,7 +6379,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -6418,7 +6394,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -6433,7 +6409,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -6448,7 +6424,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -6463,7 +6439,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -6478,7 +6454,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -6493,7 +6469,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -6508,7 +6484,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -6523,7 +6499,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -6538,7 +6514,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -6553,7 +6529,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -6589,10 +6565,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -6607,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -6622,7 +6598,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -6637,7 +6613,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -6652,7 +6628,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -6667,7 +6643,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -6682,7 +6658,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -6697,7 +6673,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -6712,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -6727,7 +6703,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -6742,7 +6718,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -6757,7 +6733,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -6772,7 +6748,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -6787,7 +6763,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -6802,7 +6778,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -6817,7 +6793,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -6832,7 +6808,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -6847,7 +6823,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -6862,7 +6838,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -6877,7 +6853,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -6892,7 +6868,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -6907,7 +6883,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -6922,7 +6898,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -6937,7 +6913,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -6952,7 +6928,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -6967,7 +6943,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -6982,7 +6958,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -6997,7 +6973,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -7012,7 +6988,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -7027,7 +7003,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -7042,7 +7018,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -7057,7 +7033,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -7072,7 +7048,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -7087,7 +7063,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -7102,7 +7078,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -7117,7 +7093,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -7132,7 +7108,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -7147,7 +7123,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -7162,7 +7138,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -7177,7 +7153,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -7192,7 +7168,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -7207,7 +7183,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -7222,7 +7198,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -7237,7 +7213,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -7252,7 +7228,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -7267,7 +7243,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -7282,7 +7258,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -7297,7 +7273,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -7312,7 +7288,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -7327,7 +7303,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -7342,7 +7318,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -7357,7 +7333,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -7372,7 +7348,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -7387,7 +7363,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -7402,7 +7378,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -7417,7 +7393,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
@@ -7432,7 +7408,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
@@ -7447,7 +7423,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="9"/>
@@ -7462,7 +7438,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
@@ -7477,7 +7453,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -7492,7 +7468,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
@@ -7507,7 +7483,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
@@ -7522,7 +7498,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
@@ -7537,7 +7513,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
@@ -7552,7 +7528,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
@@ -7567,7 +7543,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -7603,10 +7579,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -7621,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -7636,7 +7612,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -7651,7 +7627,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -7666,7 +7642,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -7681,7 +7657,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -7696,7 +7672,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -7711,7 +7687,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -7726,7 +7702,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -7741,7 +7717,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -7756,7 +7732,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -7771,7 +7747,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -7786,7 +7762,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -7801,7 +7777,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -7816,7 +7792,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -7831,7 +7807,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -7846,7 +7822,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -7861,7 +7837,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -7876,7 +7852,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -7891,7 +7867,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -7906,7 +7882,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -7921,7 +7897,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -7936,7 +7912,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -7951,7 +7927,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -7966,7 +7942,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -7981,7 +7957,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -7996,7 +7972,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -8011,7 +7987,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -8026,7 +8002,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -8041,7 +8017,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -8056,7 +8032,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -8071,7 +8047,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -8086,7 +8062,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -8101,7 +8077,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -8116,7 +8092,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -8131,7 +8107,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -8146,7 +8122,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -8161,7 +8137,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -8176,7 +8152,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -8191,7 +8167,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -8206,7 +8182,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -8221,7 +8197,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -8236,7 +8212,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -8251,7 +8227,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -8266,7 +8242,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -8281,7 +8257,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -8296,7 +8272,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -8311,7 +8287,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -8326,7 +8302,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -8341,7 +8317,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -8356,7 +8332,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -8392,10 +8368,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -8410,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -8425,7 +8401,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -8440,7 +8416,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -8455,7 +8431,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -8470,7 +8446,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -8485,7 +8461,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -8500,7 +8476,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -8515,7 +8491,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -8530,7 +8506,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -8545,7 +8521,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -8560,7 +8536,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -8575,7 +8551,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -8590,7 +8566,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -8605,7 +8581,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -8620,7 +8596,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -8635,7 +8611,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -8650,7 +8626,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -8665,7 +8641,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -8680,7 +8656,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -8695,7 +8671,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -8710,7 +8686,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -8725,7 +8701,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -8740,7 +8716,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -8755,7 +8731,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -8770,7 +8746,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -8785,7 +8761,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -8821,10 +8797,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -8839,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -8854,7 +8830,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -8869,7 +8845,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -8884,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -8899,7 +8875,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -8914,7 +8890,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -8929,7 +8905,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -8944,7 +8920,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -8959,7 +8935,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -8974,7 +8950,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -8989,7 +8965,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -9004,7 +8980,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -9019,7 +8995,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -9034,7 +9010,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -9049,7 +9025,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -9064,7 +9040,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -9079,7 +9055,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -9094,7 +9070,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -9109,7 +9085,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -9124,7 +9100,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -9139,7 +9115,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -9154,7 +9130,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -9169,7 +9145,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -9205,10 +9181,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -9223,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -9238,7 +9214,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -9253,7 +9229,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -9268,7 +9244,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -9283,7 +9259,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -9298,7 +9274,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -9313,7 +9289,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -9328,7 +9304,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -9343,7 +9319,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -9358,7 +9334,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -9373,7 +9349,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -9388,7 +9364,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -9403,7 +9379,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -9418,7 +9394,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -9433,7 +9409,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -9448,7 +9424,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -9463,7 +9439,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -9478,7 +9454,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -9493,7 +9469,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -9513,9 +9489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480A7B6A-D477-4CBC-82EC-C8879795167F}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9527,24 +9503,24 @@
     <col min="6" max="6" width="56.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" t="s">
-        <v>104</v>
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="14">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1" s="14">
+        <v>500</v>
+      </c>
+      <c r="E1" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F1" s="14">
+        <v>5000</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10091,10 +10067,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -10214,10 +10190,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -10661,10 +10637,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -10800,10 +10776,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -10923,10 +10899,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -10934,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -10942,7 +10918,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -10951,7 +10927,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -10960,7 +10936,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -10969,7 +10945,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -10978,7 +10954,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -10986,7 +10962,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -10994,7 +10970,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -11021,10 +10997,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11032,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
@@ -11047,7 +11023,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -11062,7 +11038,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
@@ -11077,7 +11053,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
@@ -11092,7 +11068,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
@@ -11107,7 +11083,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
@@ -11122,7 +11098,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -11137,7 +11113,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
@@ -11152,7 +11128,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -11167,7 +11143,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -11182,7 +11158,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -11197,7 +11173,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -11212,7 +11188,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -11227,7 +11203,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
@@ -11242,7 +11218,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -11257,7 +11233,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -11272,7 +11248,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -11287,7 +11263,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
@@ -11302,7 +11278,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -11317,7 +11293,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
@@ -11332,7 +11308,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
@@ -11347,7 +11323,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -11362,7 +11338,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -11377,7 +11353,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
@@ -11392,7 +11368,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -11407,7 +11383,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
@@ -11422,7 +11398,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
@@ -11437,7 +11413,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
@@ -11452,7 +11428,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
@@ -11467,7 +11443,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
@@ -11482,7 +11458,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
@@ -11497,7 +11473,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
@@ -11512,7 +11488,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
@@ -11527,7 +11503,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
@@ -11542,7 +11518,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
@@ -11557,7 +11533,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
@@ -11572,7 +11548,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
@@ -11587,7 +11563,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
@@ -11602,7 +11578,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
@@ -11617,7 +11593,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
@@ -11632,7 +11608,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
@@ -11647,7 +11623,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
@@ -11662,7 +11638,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
@@ -11677,7 +11653,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
@@ -11692,7 +11668,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
@@ -11707,7 +11683,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
@@ -11722,7 +11698,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
@@ -11737,7 +11713,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
@@ -11752,7 +11728,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
@@ -11767,7 +11743,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
@@ -11782,7 +11758,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
@@ -11797,7 +11773,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
@@ -11812,7 +11788,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
@@ -11827,7 +11803,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
@@ -11842,7 +11818,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
@@ -11857,7 +11833,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
@@ -16231,10 +16207,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -16249,7 +16225,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -16264,7 +16240,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -16279,7 +16255,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -16294,7 +16270,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -16309,7 +16285,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -16324,7 +16300,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -16339,7 +16315,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -16354,7 +16330,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -16369,7 +16345,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -16384,7 +16360,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -16399,7 +16375,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -16414,7 +16390,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -16429,7 +16405,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -16444,7 +16420,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -16459,7 +16435,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -16474,7 +16450,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -16489,7 +16465,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -16504,7 +16480,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -16519,7 +16495,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -16534,7 +16510,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -16549,7 +16525,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -16564,7 +16540,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -16579,7 +16555,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -16594,7 +16570,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -16609,7 +16585,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -16624,7 +16600,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -16639,7 +16615,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -16654,7 +16630,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -16669,7 +16645,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -16684,7 +16660,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -16699,7 +16675,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -16714,7 +16690,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -16729,7 +16705,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -16744,7 +16720,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -16759,7 +16735,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -16774,7 +16750,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -16789,7 +16765,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -16804,7 +16780,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -16819,7 +16795,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -16834,7 +16810,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -16849,7 +16825,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -16864,7 +16840,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -16879,7 +16855,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -16894,7 +16870,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -16909,7 +16885,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -16924,7 +16900,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -16939,7 +16915,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -16954,7 +16930,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -16969,7 +16945,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -16984,7 +16960,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -16999,7 +16975,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -17014,7 +16990,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -17029,7 +17005,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -17044,7 +17020,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -17059,7 +17035,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
@@ -17074,7 +17050,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
@@ -17089,7 +17065,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="9"/>
@@ -17104,7 +17080,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
@@ -17119,7 +17095,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -17134,7 +17110,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
@@ -17149,7 +17125,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
@@ -17164,7 +17140,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
@@ -17179,7 +17155,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
@@ -17194,7 +17170,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
@@ -17209,7 +17185,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -17224,7 +17200,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -17239,7 +17215,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
@@ -17254,7 +17230,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
@@ -17269,7 +17245,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
@@ -17284,7 +17260,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
@@ -17299,7 +17275,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
@@ -17314,7 +17290,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
@@ -17329,7 +17305,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="9"/>
@@ -17344,7 +17320,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
@@ -17359,7 +17335,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="9"/>
@@ -17374,7 +17350,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="9"/>
@@ -17389,7 +17365,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
@@ -17404,7 +17380,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="9"/>
@@ -17419,7 +17395,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="9"/>
@@ -17434,7 +17410,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
@@ -17449,7 +17425,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="9"/>
@@ -17464,7 +17440,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="9"/>
@@ -17479,7 +17455,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9"/>
@@ -17494,7 +17470,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
@@ -17509,7 +17485,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="9"/>
@@ -17524,7 +17500,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="9"/>
@@ -17539,7 +17515,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
@@ -17554,7 +17530,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="9"/>
@@ -17569,7 +17545,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="9"/>
@@ -17584,7 +17560,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="9"/>
@@ -17599,7 +17575,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="9"/>

--- a/individual_items.xlsx
+++ b/individual_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440158CB-1ECC-4DB1-B435-3D133FAAF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8864B73-B875-41D9-954D-DD68263E004A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11840" yWindow="680" windowWidth="20820" windowHeight="17410" tabRatio="653" xr2:uid="{EB3FE16E-157E-4914-A7D1-6C101C7199CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="653" xr2:uid="{EB3FE16E-157E-4914-A7D1-6C101C7199CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Art Objects" sheetId="7" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="669">
   <si>
     <t>Armor, +3 plate</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Javelin</t>
   </si>
   <si>
-    <t>–</t>
-  </si>
-  <si>
     <t>Ruby (transparent clear red to deep crimson)</t>
   </si>
   <si>
@@ -2030,6 +2027,36 @@
   </si>
   <si>
     <t xml:space="preserve">Ammunition </t>
+  </si>
+  <si>
+    <t>Amber (transparent watery gold to rich gold)</t>
+  </si>
+  <si>
+    <t>Amethyst (transparent deep purple)</t>
+  </si>
+  <si>
+    <t>Chrysoberyl (transparent yellow-green to pale green)</t>
+  </si>
+  <si>
+    <t>Coral (opaque crimson)</t>
+  </si>
+  <si>
+    <t>Garnet (transparent red, brown-green, or violet)</t>
+  </si>
+  <si>
+    <t>Jade (translucent light green, deep green, or white)</t>
+  </si>
+  <si>
+    <t>Jet (opaque deep black)</t>
+  </si>
+  <si>
+    <t>Pearl (opaque lustrous white, yellow, or pink)</t>
+  </si>
+  <si>
+    <t>Spinel (transparent red, red-brown, or deep green)</t>
+  </si>
+  <si>
+    <t>Tourmaline (transparent pale green, blue, brown, or red)</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2139,6 +2166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2455,9 +2483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85B3EE1-6AFF-4A57-8DA1-7E554C0976DB}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2490,19 +2518,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2510,19 +2538,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2530,19 +2558,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2550,19 +2578,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2570,19 +2598,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2590,19 +2618,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2610,19 +2638,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2630,19 +2658,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -2651,19 +2679,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -2672,19 +2700,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -2693,19 +2721,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -2714,19 +2742,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -2735,19 +2763,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -2756,19 +2784,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -2777,19 +2805,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="K16" s="3"/>
     </row>
@@ -2798,19 +2826,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2818,19 +2846,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2838,19 +2866,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -2859,19 +2887,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -2880,19 +2908,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -2901,19 +2929,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -2922,19 +2950,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -2943,19 +2971,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -2964,19 +2992,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -2985,19 +3013,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -3006,19 +3034,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -3027,19 +3055,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I28" s="3"/>
     </row>
@@ -3048,19 +3076,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3068,19 +3096,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3088,19 +3116,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3108,19 +3136,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3128,19 +3156,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3148,19 +3176,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3168,19 +3196,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3188,19 +3216,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3208,19 +3236,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3228,19 +3256,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3248,19 +3276,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3268,19 +3296,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3288,19 +3316,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3328,10 +3356,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -3346,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -3361,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -3376,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -3391,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3406,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -3421,7 +3449,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -3436,7 +3464,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -3451,7 +3479,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -3466,7 +3494,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -3481,7 +3509,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -3496,7 +3524,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -3511,7 +3539,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -3526,7 +3554,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -3541,7 +3569,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -3556,7 +3584,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -3571,7 +3599,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -3586,7 +3614,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -3601,7 +3629,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -3616,7 +3644,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -3631,7 +3659,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -3646,7 +3674,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -3661,7 +3689,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -3676,7 +3704,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -3691,7 +3719,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -3706,7 +3734,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -3721,7 +3749,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -3736,7 +3764,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -3751,7 +3779,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -3766,7 +3794,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -3781,7 +3809,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -3796,7 +3824,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -3811,7 +3839,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -3826,7 +3854,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -3841,7 +3869,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -3856,7 +3884,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -3871,7 +3899,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -3886,7 +3914,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -3901,7 +3929,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -3916,7 +3944,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -3931,7 +3959,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -3946,7 +3974,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -3961,7 +3989,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -3976,7 +4004,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -3991,7 +4019,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -4006,7 +4034,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -4021,7 +4049,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -4036,7 +4064,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -4051,7 +4079,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -4066,7 +4094,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -4081,7 +4109,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -4096,7 +4124,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -4111,7 +4139,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -4126,7 +4154,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -4141,7 +4169,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -4156,7 +4184,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
@@ -4171,7 +4199,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
@@ -4186,7 +4214,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="9"/>
@@ -4201,7 +4229,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
@@ -4216,7 +4244,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -4231,7 +4259,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
@@ -4246,7 +4274,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
@@ -4261,7 +4289,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
@@ -4276,7 +4304,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
@@ -4291,7 +4319,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
@@ -4306,7 +4334,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -4321,7 +4349,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -4336,7 +4364,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
@@ -4351,7 +4379,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
@@ -4366,7 +4394,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
@@ -4381,7 +4409,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
@@ -4396,7 +4424,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
@@ -4411,7 +4439,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
@@ -4426,7 +4454,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="9"/>
@@ -4441,7 +4469,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
@@ -4456,7 +4484,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="9"/>
@@ -4471,7 +4499,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="9"/>
@@ -4486,7 +4514,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
@@ -4501,7 +4529,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="9"/>
@@ -4516,7 +4544,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="9"/>
@@ -4531,7 +4559,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
@@ -4546,7 +4574,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="9"/>
@@ -4561,7 +4589,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="9"/>
@@ -4597,10 +4625,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -4615,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -4630,7 +4658,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -4645,7 +4673,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4660,7 +4688,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -4675,7 +4703,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -4690,7 +4718,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -4705,7 +4733,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -4720,7 +4748,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -4735,7 +4763,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -4750,7 +4778,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -4765,7 +4793,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -4780,7 +4808,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -4795,7 +4823,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -4810,7 +4838,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -4825,7 +4853,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -4840,7 +4868,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -4855,7 +4883,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -4870,7 +4898,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -4885,7 +4913,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -4900,7 +4928,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -4915,7 +4943,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -4930,7 +4958,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -4945,7 +4973,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -4960,7 +4988,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4975,7 +5003,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -4990,7 +5018,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -5005,7 +5033,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -5020,7 +5048,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -5035,7 +5063,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -5050,7 +5078,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -5065,7 +5093,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -5080,7 +5108,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -5095,7 +5123,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -5110,7 +5138,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -5125,7 +5153,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -5140,7 +5168,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -5155,7 +5183,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -5170,7 +5198,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -5185,7 +5213,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -5200,7 +5228,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -5215,7 +5243,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -5230,7 +5258,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -5245,7 +5273,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -5260,7 +5288,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -5275,7 +5303,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -5290,7 +5318,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -5305,7 +5333,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -5320,7 +5348,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -5335,7 +5363,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -5350,7 +5378,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -5365,7 +5393,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -5380,7 +5408,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -5395,7 +5423,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -5410,7 +5438,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -5425,7 +5453,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
@@ -5440,7 +5468,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
@@ -5455,7 +5483,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="9"/>
@@ -5470,7 +5498,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
@@ -5485,7 +5513,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -5500,7 +5528,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
@@ -5515,7 +5543,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
@@ -5530,7 +5558,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
@@ -5545,7 +5573,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
@@ -5560,7 +5588,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
@@ -5575,7 +5603,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -5590,7 +5618,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -5605,7 +5633,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
@@ -5620,7 +5648,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
@@ -5635,7 +5663,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
@@ -5650,7 +5678,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
@@ -5665,7 +5693,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
@@ -5680,7 +5708,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
@@ -5716,10 +5744,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -5734,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -5749,7 +5777,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -5764,7 +5792,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -5779,7 +5807,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -5794,7 +5822,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -5809,7 +5837,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -5824,7 +5852,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -5839,7 +5867,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -5854,7 +5882,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -5869,7 +5897,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -5884,7 +5912,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -5899,7 +5927,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -5914,7 +5942,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -5929,7 +5957,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -5944,7 +5972,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -5959,7 +5987,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -5974,7 +6002,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -5989,7 +6017,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -6004,7 +6032,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -6019,7 +6047,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -6034,7 +6062,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -6049,7 +6077,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -6064,7 +6092,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -6079,7 +6107,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -6094,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -6109,7 +6137,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -6124,7 +6152,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -6139,7 +6167,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -6154,7 +6182,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -6169,7 +6197,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -6184,7 +6212,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -6199,7 +6227,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -6214,7 +6242,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -6229,7 +6257,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -6244,7 +6272,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -6259,7 +6287,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -6274,7 +6302,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -6289,7 +6317,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -6304,7 +6332,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -6319,7 +6347,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -6334,7 +6362,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -6349,7 +6377,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -6364,7 +6392,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -6379,7 +6407,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -6394,7 +6422,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -6409,7 +6437,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -6424,7 +6452,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -6439,7 +6467,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -6454,7 +6482,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -6469,7 +6497,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -6484,7 +6512,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -6499,7 +6527,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -6514,7 +6542,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -6529,7 +6557,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -6565,10 +6593,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -6583,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -6598,7 +6626,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -6613,7 +6641,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -6628,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -6643,7 +6671,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -6658,7 +6686,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -6673,7 +6701,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -6688,7 +6716,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -6703,7 +6731,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -6718,7 +6746,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -6733,7 +6761,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -6748,7 +6776,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -6763,7 +6791,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -6778,7 +6806,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -6793,7 +6821,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -6808,7 +6836,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -6823,7 +6851,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -6838,7 +6866,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -6853,7 +6881,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -6868,7 +6896,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -6883,7 +6911,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -6898,7 +6926,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -6913,7 +6941,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -6928,7 +6956,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -6943,7 +6971,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -6958,7 +6986,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -6973,7 +7001,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -6988,7 +7016,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -7003,7 +7031,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -7018,7 +7046,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -7033,7 +7061,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -7048,7 +7076,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -7063,7 +7091,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -7078,7 +7106,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -7093,7 +7121,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -7108,7 +7136,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -7123,7 +7151,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -7138,7 +7166,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -7153,7 +7181,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -7168,7 +7196,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -7183,7 +7211,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -7198,7 +7226,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -7213,7 +7241,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -7228,7 +7256,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -7243,7 +7271,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -7258,7 +7286,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -7273,7 +7301,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -7288,7 +7316,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -7303,7 +7331,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -7318,7 +7346,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -7333,7 +7361,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -7348,7 +7376,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -7363,7 +7391,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -7378,7 +7406,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -7393,7 +7421,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
@@ -7408,7 +7436,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
@@ -7423,7 +7451,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="9"/>
@@ -7438,7 +7466,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
@@ -7453,7 +7481,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -7468,7 +7496,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
@@ -7483,7 +7511,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
@@ -7498,7 +7526,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
@@ -7513,7 +7541,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
@@ -7528,7 +7556,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
@@ -7543,7 +7571,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -7579,10 +7607,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -7597,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -7612,7 +7640,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -7627,7 +7655,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -7642,7 +7670,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -7657,7 +7685,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -7672,7 +7700,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -7687,7 +7715,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -7702,7 +7730,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -7717,7 +7745,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -7732,7 +7760,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -7747,7 +7775,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -7762,7 +7790,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -7777,7 +7805,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -7792,7 +7820,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -7807,7 +7835,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -7822,7 +7850,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -7837,7 +7865,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -7852,7 +7880,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -7867,7 +7895,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -7882,7 +7910,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -7897,7 +7925,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -7912,7 +7940,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -7927,7 +7955,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -7942,7 +7970,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -7957,7 +7985,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -7972,7 +8000,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -7987,7 +8015,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -8002,7 +8030,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -8017,7 +8045,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -8032,7 +8060,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -8047,7 +8075,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -8062,7 +8090,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -8077,7 +8105,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -8092,7 +8120,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -8107,7 +8135,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -8122,7 +8150,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -8137,7 +8165,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -8152,7 +8180,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -8167,7 +8195,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -8182,7 +8210,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -8197,7 +8225,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -8212,7 +8240,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -8227,7 +8255,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -8242,7 +8270,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -8257,7 +8285,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -8272,7 +8300,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -8287,7 +8315,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -8302,7 +8330,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -8317,7 +8345,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -8332,7 +8360,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -8368,10 +8396,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -8386,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -8401,7 +8429,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -8416,7 +8444,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -8431,7 +8459,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -8446,7 +8474,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -8461,7 +8489,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -8476,7 +8504,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -8491,7 +8519,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -8506,7 +8534,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -8521,7 +8549,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -8536,7 +8564,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -8551,7 +8579,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -8566,7 +8594,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -8581,7 +8609,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -8596,7 +8624,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -8611,7 +8639,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -8626,7 +8654,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -8641,7 +8669,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -8656,7 +8684,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -8671,7 +8699,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -8686,7 +8714,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -8701,7 +8729,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -8716,7 +8744,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -8731,7 +8759,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -8746,7 +8774,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -8761,7 +8789,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -8797,10 +8825,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -8815,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -8830,7 +8858,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -8845,7 +8873,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -8860,7 +8888,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -8875,7 +8903,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -8890,7 +8918,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -8905,7 +8933,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -8920,7 +8948,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -8935,7 +8963,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -8950,7 +8978,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -8965,7 +8993,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -8980,7 +9008,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -8995,7 +9023,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -9010,7 +9038,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -9025,7 +9053,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -9040,7 +9068,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -9055,7 +9083,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -9070,7 +9098,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -9085,7 +9113,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -9100,7 +9128,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -9115,7 +9143,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -9130,7 +9158,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -9145,7 +9173,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -9181,10 +9209,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -9199,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -9214,7 +9242,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -9229,7 +9257,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -9244,7 +9272,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -9259,7 +9287,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -9274,7 +9302,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -9289,7 +9317,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -9304,7 +9332,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -9319,7 +9347,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -9334,7 +9362,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -9349,7 +9377,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -9364,7 +9392,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -9379,7 +9407,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -9394,7 +9422,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -9409,7 +9437,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -9424,7 +9452,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -9439,7 +9467,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -9454,7 +9482,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -9469,7 +9497,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -9487,25 +9515,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480A7B6A-D477-4CBC-82EC-C8879795167F}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B2:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="69.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.54296875" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1" s="14">
         <v>10</v>
@@ -9514,538 +9543,2818 @@
         <v>50</v>
       </c>
       <c r="D1" s="14">
+        <v>100</v>
+      </c>
+      <c r="E1" s="14">
         <v>500</v>
       </c>
-      <c r="E1" s="14">
+      <c r="F1" s="14">
         <v>1000</v>
       </c>
-      <c r="F1" s="14">
+      <c r="G1" s="14">
         <v>5000</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>101</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>659</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>83</v>
+        <v>101</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>659</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>659</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>659</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>67</v>
+        <v>101</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>659</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>67</v>
+        <v>101</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>659</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>659</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>659</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>82</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>82</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>98</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>98</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>67</v>
+        <v>96</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>67</v>
+        <v>96</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>64</v>
+        <v>96</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="B67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="D112" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F112" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="3" t="s">
+      <c r="G112" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="3" t="s">
+    </row>
+    <row r="113" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G113" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B121">
+    <sortCondition ref="B121"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10067,10 +12376,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -10190,10 +12499,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -10637,10 +12946,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -10776,10 +13085,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -10899,10 +13208,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -10910,7 +13219,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -10918,7 +13227,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -10927,7 +13236,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -10936,7 +13245,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -10945,7 +13254,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -10954,7 +13263,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -10962,7 +13271,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -10970,7 +13279,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -10997,10 +13306,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11008,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
@@ -11023,7 +13332,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -11038,7 +13347,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
@@ -11053,7 +13362,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
@@ -11068,7 +13377,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
@@ -11083,7 +13392,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
@@ -11098,7 +13407,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -11113,7 +13422,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
@@ -11128,7 +13437,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -11143,7 +13452,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -11158,7 +13467,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -11173,7 +13482,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -11188,7 +13497,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -11203,7 +13512,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
@@ -11218,7 +13527,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -11233,7 +13542,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -11248,7 +13557,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -11263,7 +13572,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
@@ -11278,7 +13587,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -11293,7 +13602,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
@@ -11308,7 +13617,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
@@ -11323,7 +13632,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -11338,7 +13647,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -11353,7 +13662,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
@@ -11368,7 +13677,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -11383,7 +13692,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
@@ -11398,7 +13707,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
@@ -11413,7 +13722,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
@@ -11428,7 +13737,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
@@ -11443,7 +13752,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
@@ -11458,7 +13767,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
@@ -11473,7 +13782,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
@@ -11488,7 +13797,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
@@ -11503,7 +13812,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
@@ -11518,7 +13827,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
@@ -11533,7 +13842,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
@@ -11548,7 +13857,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
@@ -11563,7 +13872,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
@@ -11578,7 +13887,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
@@ -11593,7 +13902,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
@@ -11608,7 +13917,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
@@ -11623,7 +13932,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
@@ -11638,7 +13947,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
@@ -11653,7 +13962,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
@@ -11668,7 +13977,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
@@ -11683,7 +13992,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
@@ -11698,7 +14007,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
@@ -11713,7 +14022,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
@@ -11728,7 +14037,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
@@ -11743,7 +14052,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
@@ -11758,7 +14067,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
@@ -11773,7 +14082,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
@@ -11788,7 +14097,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
@@ -11803,7 +14112,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
@@ -11818,7 +14127,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
@@ -11833,7 +14142,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
@@ -16207,10 +18516,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -16225,7 +18534,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -16240,7 +18549,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -16255,7 +18564,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -16270,7 +18579,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -16285,7 +18594,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -16300,7 +18609,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -16315,7 +18624,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -16330,7 +18639,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -16345,7 +18654,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -16360,7 +18669,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -16375,7 +18684,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -16390,7 +18699,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -16405,7 +18714,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -16420,7 +18729,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -16435,7 +18744,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -16450,7 +18759,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -16465,7 +18774,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -16480,7 +18789,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -16495,7 +18804,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -16510,7 +18819,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -16525,7 +18834,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -16540,7 +18849,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -16555,7 +18864,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -16570,7 +18879,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -16585,7 +18894,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -16600,7 +18909,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -16615,7 +18924,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -16630,7 +18939,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -16645,7 +18954,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -16660,7 +18969,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -16675,7 +18984,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -16690,7 +18999,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -16705,7 +19014,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -16720,7 +19029,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -16735,7 +19044,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -16750,7 +19059,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -16765,7 +19074,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -16780,7 +19089,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -16795,7 +19104,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -16810,7 +19119,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -16825,7 +19134,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -16840,7 +19149,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -16855,7 +19164,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -16870,7 +19179,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -16885,7 +19194,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -16900,7 +19209,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -16915,7 +19224,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -16930,7 +19239,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -16945,7 +19254,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -16960,7 +19269,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -16975,7 +19284,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -16990,7 +19299,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -17005,7 +19314,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -17020,7 +19329,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -17035,7 +19344,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
@@ -17050,7 +19359,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
@@ -17065,7 +19374,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="9"/>
@@ -17080,7 +19389,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
@@ -17095,7 +19404,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -17110,7 +19419,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
@@ -17125,7 +19434,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
@@ -17140,7 +19449,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
@@ -17155,7 +19464,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
@@ -17170,7 +19479,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
@@ -17185,7 +19494,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -17200,7 +19509,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -17215,7 +19524,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
@@ -17230,7 +19539,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
@@ -17245,7 +19554,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
@@ -17260,7 +19569,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
@@ -17275,7 +19584,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
@@ -17290,7 +19599,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
@@ -17305,7 +19614,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="9"/>
@@ -17320,7 +19629,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
@@ -17335,7 +19644,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="9"/>
@@ -17350,7 +19659,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="9"/>
@@ -17365,7 +19674,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
@@ -17380,7 +19689,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="9"/>
@@ -17395,7 +19704,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="9"/>
@@ -17410,7 +19719,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
@@ -17425,7 +19734,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="9"/>
@@ -17440,7 +19749,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="9"/>
@@ -17455,7 +19764,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9"/>
@@ -17470,7 +19779,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
@@ -17485,7 +19794,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="9"/>
@@ -17500,7 +19809,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="9"/>
@@ -17515,7 +19824,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
@@ -17530,7 +19839,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="9"/>
@@ -17545,7 +19854,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="9"/>
@@ -17560,7 +19869,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="9"/>
@@ -17575,7 +19884,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="9"/>

--- a/individual_items.xlsx
+++ b/individual_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8864B73-B875-41D9-954D-DD68263E004A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C28171A-D45B-46ED-9B5B-AFA3F44AAA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="653" xr2:uid="{EB3FE16E-157E-4914-A7D1-6C101C7199CA}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="669">
   <si>
     <t>Armor, +3 plate</t>
   </si>
@@ -2485,7 +2485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2497,6 +2497,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>653</v>
+      </c>
       <c r="B1">
         <v>25</v>
       </c>

--- a/individual_items.xlsx
+++ b/individual_items.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C28171A-D45B-46ED-9B5B-AFA3F44AAA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668B6BDE-D388-4FD4-9130-EE93C17EF32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="653" xr2:uid="{EB3FE16E-157E-4914-A7D1-6C101C7199CA}"/>
+    <workbookView xWindow="57480" yWindow="16230" windowWidth="25440" windowHeight="15390" tabRatio="653" activeTab="6" xr2:uid="{EB3FE16E-157E-4914-A7D1-6C101C7199CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Art Objects" sheetId="7" r:id="rId1"/>
     <sheet name="Gems" sheetId="6" r:id="rId2"/>
     <sheet name="Ammunition" sheetId="5" r:id="rId3"/>
     <sheet name="Weapons" sheetId="4" r:id="rId4"/>
-    <sheet name="Armor Type" sheetId="3" r:id="rId5"/>
+    <sheet name="Armor" sheetId="3" r:id="rId5"/>
     <sheet name="Magic Armor" sheetId="2" r:id="rId6"/>
-    <sheet name="Figureine of Wondrous Power" sheetId="8" r:id="rId7"/>
+    <sheet name="Figurine of Wondrous Power" sheetId="8" r:id="rId7"/>
     <sheet name="Cantrips" sheetId="23" r:id="rId8"/>
     <sheet name="Level 1" sheetId="11" r:id="rId9"/>
     <sheet name="Level 2" sheetId="13" r:id="rId10"/>
@@ -2483,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85B3EE1-6AFF-4A57-8DA1-7E554C0976DB}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
@@ -3344,7 +3344,1276 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="5"/>
+    <col min="2" max="2" width="23.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="10"/>
+    <col min="4" max="16384" width="8.7265625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4B38CB-D9E1-40A3-858B-D2FB55163BFE}">
+  <dimension ref="A1:I73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C40" sqref="C40"/>
       <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
@@ -3377,1275 +4646,6 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="5">
-        <v>56</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="5">
-        <v>58</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="5">
-        <v>59</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="5">
-        <v>61</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="5">
-        <v>62</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="5">
-        <v>63</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="5">
-        <v>64</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="5">
-        <v>65</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="5">
-        <v>66</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="5">
-        <v>67</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="5">
-        <v>68</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="5">
-        <v>69</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="5">
-        <v>70</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="5">
-        <v>71</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="5">
-        <v>72</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="5">
-        <v>73</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="5">
-        <v>74</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="5">
-        <v>75</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="5">
-        <v>76</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="5">
-        <v>77</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="5">
-        <v>78</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="5">
-        <v>79</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="5">
-        <v>80</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="5">
-        <v>81</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="5">
-        <v>82</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4B38CB-D9E1-40A3-858B-D2FB55163BFE}">
-  <dimension ref="A1:I73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C40" sqref="C40"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="5"/>
-    <col min="2" max="2" width="19.90625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="10"/>
-    <col min="4" max="16384" width="8.7265625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
         <v>367</v>
       </c>
       <c r="C2" s="8"/>
@@ -5732,7 +5732,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C40" sqref="C40"/>
       <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
@@ -6581,7 +6581,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C40" sqref="C40"/>
       <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
@@ -12939,7 +12939,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13199,9 +13199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C89054-848B-4DFC-A312-8742A137501D}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A9"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13296,7 +13296,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:F60"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
